--- a/biology/Histoire de la zoologie et de la botanique/Jean_Pierre_Sylvestre_Grateloup/Jean_Pierre_Sylvestre_Grateloup.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Pierre_Sylvestre_Grateloup/Jean_Pierre_Sylvestre_Grateloup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Sylvestre de Grateloup, né Jean Pierre Sylvestre Grateloup le 31 décembre 1782 à Dax (Landes)[1], mort le 25 août 1861 à Bordeaux[2],[3], est un médecin et un naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Sylvestre de Grateloup, né Jean Pierre Sylvestre Grateloup le 31 décembre 1782 à Dax (Landes), mort le 25 août 1861 à Bordeaux est un médecin et un naturaliste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Montpellier. Après sa rencontre avec Léon Dufour (1780-1865) (qui est un ami de jeunesse et le qualifie « d’excellent sujet ») et avec Jean-Baptiste Bory de Saint-Vincent (1778-1846) (qui lui est présenté par leur ami commun Dufour), il s’adonne d’abord avec enthousiasme à la botanique et en particulier à la cryptogamie, avant de s’intéresser aux coquilles de sa région et en particulier celles des environs de l’Adour. Il exerce sa profession de médecin des hôpitaux militaires à Dax, en 1807 aux côtés de Jean Thore (1762-1823). Il connaît de nombreux ennuis[Lesquels ?] lors de la Restauration. Après son mariage en 1822, il s’installe à Bordeaux.
 Membre correspondant de la Société linnéenne de Paris, il fut directeur du Musée municipal d’histoire naturelle de Dax, constitué à partir de la collection et du cabinet de Jacques-François de Borda d'Oro (1718-1804). Il a été rédacteur d’articles dans les Annales générales de sciences physiques de Bory de Saint-Vincent, Pierre Auguste Joseph Drapiez (1778-1856) et Jean-Baptiste Van Mons (1765-1842).
